--- a/data/scenarios/base/output/statistics.xlsx
+++ b/data/scenarios/base/output/statistics.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,21 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Время движения в интегральной тяжести 20+</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Время движения в интегральной тяжести 15-19</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Время движения в интегральной тяжести 10-14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Общее время простоя</t>
         </is>
       </c>
@@ -508,19 +523,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.28286852589641</v>
+        <v>18.512</v>
       </c>
       <c r="C2" t="n">
-        <v>17.60509554140127</v>
+        <v>17.9079754601227</v>
       </c>
       <c r="D2" t="n">
-        <v>2764</v>
+        <v>2919</v>
       </c>
       <c r="E2" t="n">
-        <v>4589</v>
+        <v>4628</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -529,19 +544,28 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J2" t="n">
         <v>19</v>
       </c>
       <c r="K2" t="n">
-        <v>13.35298804780876</v>
+        <v>13.296</v>
       </c>
       <c r="L2" t="n">
-        <v>17.47410358565737</v>
+        <v>17.428</v>
       </c>
       <c r="M2" t="n">
-        <v>243</v>
+        <v>1375</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2197</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1056</v>
+      </c>
+      <c r="P2" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="3">
@@ -551,36 +575,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.87007874015748</v>
+        <v>16.44747081712062</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>3777</v>
+        <v>4227</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J3" t="n">
         <v>22</v>
       </c>
       <c r="K3" t="n">
-        <v>15.12677165354331</v>
+        <v>13.69533073929961</v>
       </c>
       <c r="L3" t="n">
-        <v>16</v>
+        <v>16.05058365758755</v>
       </c>
       <c r="M3" t="n">
-        <v>1776</v>
+        <v>85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2680</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1462</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +703,21 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Суммарное время движения в интервале 15-19</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Суммарное время движения в интервале 10-14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Суммарное время движения в интервале 20+</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Суммарное время ожидания</t>
         </is>
       </c>
@@ -684,13 +732,13 @@
         <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>13.31578947368421</v>
+        <v>14.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -702,22 +750,31 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
         <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>15.28947368421053</v>
+        <v>14.13285714285714</v>
       </c>
       <c r="L2" t="n">
-        <v>15.26315789473684</v>
+        <v>15.95714285714286</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>599</v>
+        <v>675</v>
+      </c>
+      <c r="O2" t="n">
+        <v>340</v>
+      </c>
+      <c r="P2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="3">
@@ -730,25 +787,25 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>14.75</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>14</v>
@@ -757,12 +814,21 @@
         <v>14</v>
       </c>
       <c r="L3" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>59</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -776,22 +842,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>23.25</v>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -800,16 +866,25 @@
         <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>15.2</v>
+        <v>13.7</v>
       </c>
       <c r="L4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13</v>
+      </c>
+      <c r="P4" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -855,7 +930,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13</v>
+      </c>
+      <c r="P5" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -868,10 +952,10 @@
         <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>18.33333333333333</v>
+        <v>18.5</v>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
@@ -880,10 +964,10 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="H6" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -892,7 +976,7 @@
         <v>14</v>
       </c>
       <c r="K6" t="n">
-        <v>11.43333333333333</v>
+        <v>11.175</v>
       </c>
       <c r="L6" t="n">
         <v>16.33333333333333</v>
@@ -901,7 +985,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -938,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>14.625</v>
       </c>
       <c r="L7" t="n">
         <v>19.5</v>
@@ -947,6 +1040,15 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>33</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -960,22 +1062,22 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>17.72727272727273</v>
+        <v>18.54545454545455</v>
       </c>
       <c r="D8" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>18.11111111111111</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="H8" t="n">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I8" t="n">
         <v>10</v>
@@ -984,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>13.47272727272727</v>
+        <v>13.11818181818182</v>
       </c>
       <c r="L8" t="n">
         <v>16.36363636363636</v>
@@ -993,7 +1095,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="O8" t="n">
+        <v>107</v>
+      </c>
+      <c r="P8" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1006,22 +1117,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>18.63636363636364</v>
+        <v>17.09090909090909</v>
       </c>
       <c r="D9" t="n">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>19.125</v>
+        <v>18.1</v>
       </c>
       <c r="H9" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -1030,16 +1141,25 @@
         <v>14</v>
       </c>
       <c r="K9" t="n">
-        <v>11.6</v>
+        <v>12.61818181818182</v>
       </c>
       <c r="L9" t="n">
-        <v>15.54545454545454</v>
+        <v>15.63636363636364</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="O9" t="n">
+        <v>115</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1085,6 +1205,15 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>111</v>
+      </c>
+      <c r="O10" t="n">
+        <v>28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1098,22 +1227,22 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>16.81818181818182</v>
+        <v>16.18181818181818</v>
       </c>
       <c r="D11" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>17.55555555555556</v>
+        <v>17.2</v>
       </c>
       <c r="H11" t="n">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -1122,16 +1251,25 @@
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>12.78181818181818</v>
+        <v>13.32727272727273</v>
       </c>
       <c r="L11" t="n">
-        <v>15.36363636363636</v>
+        <v>15.45454545454546</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="O11" t="n">
+        <v>112</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -1177,6 +1315,15 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>63</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1223,6 +1370,15 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1236,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1248,10 +1404,10 @@
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>10.42857142857143</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="H14" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I14" t="n">
         <v>7</v>
@@ -1260,7 +1416,7 @@
         <v>19</v>
       </c>
       <c r="K14" t="n">
-        <v>15.2</v>
+        <v>14.54375</v>
       </c>
       <c r="L14" t="n">
         <v>16.375</v>
@@ -1269,7 +1425,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="O14" t="n">
+        <v>19</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -1315,7 +1480,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="O15" t="n">
+        <v>84</v>
+      </c>
+      <c r="P15" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1361,6 +1535,15 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>39</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1374,16 +1557,16 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>14.26229508196721</v>
+        <v>19.06382978723404</v>
       </c>
       <c r="D17" t="n">
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1392,22 +1575,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J17" t="n">
         <v>18.5</v>
       </c>
       <c r="K17" t="n">
-        <v>14.73196721311475</v>
+        <v>13.49574468085106</v>
       </c>
       <c r="L17" t="n">
-        <v>16.63934426229508</v>
+        <v>16.91489361702128</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>541</v>
+        <v>657</v>
+      </c>
+      <c r="O17" t="n">
+        <v>222</v>
+      </c>
+      <c r="P17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="18">
@@ -1444,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="K18" t="n">
-        <v>12.8</v>
+        <v>12.78</v>
       </c>
       <c r="L18" t="n">
         <v>16.1</v>
@@ -1453,6 +1645,15 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>63</v>
+      </c>
+      <c r="O18" t="n">
+        <v>97</v>
+      </c>
+      <c r="P18" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1466,10 +1667,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>15.375</v>
+        <v>15.5</v>
       </c>
       <c r="D19" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
@@ -1478,10 +1679,10 @@
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>15.375</v>
+        <v>15.5</v>
       </c>
       <c r="H19" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I19" t="n">
         <v>7</v>
@@ -1490,7 +1691,7 @@
         <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>10.85</v>
+        <v>10.65625</v>
       </c>
       <c r="L19" t="n">
         <v>15.375</v>
@@ -1499,6 +1700,15 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>88</v>
+      </c>
+      <c r="O19" t="n">
+        <v>36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>23.75</v>
+        <v>24.25</v>
       </c>
       <c r="D20" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E20" t="n">
         <v>31</v>
@@ -1524,10 +1734,10 @@
         <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -1536,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="K20" t="n">
-        <v>13.125</v>
+        <v>12.9375</v>
       </c>
       <c r="L20" t="n">
         <v>19</v>
@@ -1545,6 +1755,15 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>31</v>
+      </c>
+      <c r="O20" t="n">
+        <v>29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1582,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="n">
-        <v>16.625</v>
+        <v>16.55</v>
       </c>
       <c r="L21" t="n">
         <v>18.5</v>
@@ -1591,7 +1810,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -1637,6 +1865,15 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>103</v>
+      </c>
+      <c r="O22" t="n">
+        <v>34</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1683,6 +1920,15 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q23" t="n">
         <v>99</v>
       </c>
     </row>
@@ -1696,10 +1942,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>19.25</v>
+        <v>19.5</v>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
         <v>26</v>
@@ -1708,10 +1954,10 @@
         <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H24" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -1720,7 +1966,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>16.2</v>
+        <v>15.975</v>
       </c>
       <c r="L24" t="n">
         <v>19.25</v>
@@ -1729,6 +1975,15 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>47</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1775,6 +2030,15 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>68</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1788,22 +2052,22 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>21.5</v>
+        <v>24.75</v>
       </c>
       <c r="D26" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -1812,15 +2076,24 @@
         <v>16</v>
       </c>
       <c r="K26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L26" t="n">
-        <v>21</v>
+        <v>18.25</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>22</v>
+      </c>
+      <c r="O26" t="n">
+        <v>26</v>
+      </c>
+      <c r="P26" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,6 +2140,15 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>54</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1880,10 +2162,10 @@
         <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="D28" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E28" t="n">
         <v>31</v>
@@ -1892,10 +2174,10 @@
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="H28" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I28" t="n">
         <v>5</v>
@@ -1904,16 +2186,25 @@
         <v>14</v>
       </c>
       <c r="K28" t="n">
-        <v>11.66666666666667</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>16</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1926,22 +2217,22 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>19.7</v>
+        <v>21.2</v>
       </c>
       <c r="D29" t="n">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>18.85714285714286</v>
+        <v>21</v>
       </c>
       <c r="H29" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I29" t="n">
         <v>9</v>
@@ -1950,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="K29" t="n">
-        <v>13.28</v>
+        <v>12.77</v>
       </c>
       <c r="L29" t="n">
         <v>17.3</v>
@@ -1959,7 +2250,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="O29" t="n">
+        <v>84</v>
+      </c>
+      <c r="P29" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2005,7 +2305,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2051,6 +2360,15 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2097,6 +2415,15 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>40</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2143,6 +2470,15 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>32</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2189,6 +2525,15 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>57</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2235,6 +2580,15 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>22</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2281,6 +2635,15 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>28</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2327,6 +2690,15 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>51</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2373,7 +2745,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2386,13 +2767,13 @@
         <v>45</v>
       </c>
       <c r="C39" t="n">
-        <v>18.24</v>
+        <v>17.21311475409836</v>
       </c>
       <c r="D39" t="n">
-        <v>912</v>
+        <v>1050</v>
       </c>
       <c r="E39" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
@@ -2404,22 +2785,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J39" t="n">
         <v>18.5</v>
       </c>
       <c r="K39" t="n">
-        <v>13.951</v>
+        <v>12.69836065573771</v>
       </c>
       <c r="L39" t="n">
-        <v>16.1</v>
+        <v>16.01639344262295</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>320</v>
+        <v>716</v>
+      </c>
+      <c r="O39" t="n">
+        <v>319</v>
+      </c>
+      <c r="P39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="40">
@@ -2456,7 +2846,7 @@
         <v>18</v>
       </c>
       <c r="K40" t="n">
-        <v>15.17142857142857</v>
+        <v>14.94285714285714</v>
       </c>
       <c r="L40" t="n">
         <v>17.14285714285714</v>
@@ -2465,6 +2855,15 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>63</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5</v>
+      </c>
+      <c r="P40" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2478,22 +2877,22 @@
         <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>14.54545454545454</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E41" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>14.54545454545454</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I41" t="n">
         <v>10</v>
@@ -2502,16 +2901,25 @@
         <v>18</v>
       </c>
       <c r="K41" t="n">
-        <v>13.74545454545454</v>
+        <v>13.47272727272727</v>
       </c>
       <c r="L41" t="n">
-        <v>15.09090909090909</v>
+        <v>14.90909090909091</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="O41" t="n">
+        <v>107</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2557,6 +2965,15 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>39</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2603,7 +3020,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>14</v>
+        <v>89</v>
+      </c>
+      <c r="O43" t="n">
+        <v>88</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -2616,10 +3042,10 @@
         <v>19</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>13.25</v>
       </c>
       <c r="D44" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E44" t="n">
         <v>27</v>
@@ -2628,10 +3054,10 @@
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>10.75</v>
+        <v>10.4</v>
       </c>
       <c r="H44" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I44" t="n">
         <v>7</v>
@@ -2640,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="K44" t="n">
-        <v>11.525</v>
+        <v>12.275</v>
       </c>
       <c r="L44" t="n">
         <v>16.75</v>
@@ -2649,7 +3075,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="O44" t="n">
+        <v>13</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -2695,6 +3130,15 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>23</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2741,6 +3185,15 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>51</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q46" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2754,13 +3207,13 @@
         <v>44</v>
       </c>
       <c r="C47" t="n">
-        <v>14.67164179104478</v>
+        <v>15.75949367088608</v>
       </c>
       <c r="D47" t="n">
-        <v>983</v>
+        <v>1245</v>
       </c>
       <c r="E47" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
@@ -2772,22 +3225,31 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J47" t="n">
         <v>21</v>
       </c>
       <c r="K47" t="n">
-        <v>16.17910447761194</v>
+        <v>14.19620253164557</v>
       </c>
       <c r="L47" t="n">
-        <v>16.17910447761194</v>
+        <v>15.64556962025316</v>
       </c>
       <c r="M47" t="b">
         <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>316</v>
+        <v>632</v>
+      </c>
+      <c r="O47" t="n">
+        <v>581</v>
+      </c>
+      <c r="P47" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/scenarios/base/output/statistics.xlsx
+++ b/data/scenarios/base/output/statistics.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Общая статистика" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,75 +442,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее время движения</t>
+          <t>Суммарное время движения под проводкой</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Среднее время движения под проводкой</t>
+          <t>Общее время движения</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Суммарное время движения под проводкой</t>
+          <t>Средняя скорость</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Общее время движения</t>
+          <t>Средняя интегральная тяжесть льда</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Максимальное время движения</t>
+          <t>Время движения в интегральной тяжести 20+</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Минимальное время движения</t>
+          <t>Время движения в интегральной тяжести 15-19</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Среднее число пройденных промежуточных точек</t>
+          <t>Время движения в интегральной тяжести 10-14</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Суммарное число пройденных промежуточных точек</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Максимальная скорость</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Средняя скорость</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Средняя интегральная тяжесть льда</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Время движения в интегральной тяжести 20+</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Время движения в интегральной тяжести 15-19</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Время движения в интегральной тяжести 10-14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Общее время простоя</t>
         </is>
@@ -523,48 +488,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.512</v>
+        <v>2919</v>
       </c>
       <c r="C2" t="n">
-        <v>17.9079754601227</v>
+        <v>4628</v>
       </c>
       <c r="D2" t="n">
-        <v>2919</v>
+        <v>13.296</v>
       </c>
       <c r="E2" t="n">
-        <v>4628</v>
+        <v>17.428</v>
       </c>
       <c r="F2" t="n">
-        <v>47</v>
+        <v>1375</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2197</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1056</v>
       </c>
       <c r="I2" t="n">
-        <v>208</v>
-      </c>
-      <c r="J2" t="n">
-        <v>19</v>
-      </c>
-      <c r="K2" t="n">
-        <v>13.296</v>
-      </c>
-      <c r="L2" t="n">
-        <v>17.428</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1375</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2197</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1056</v>
-      </c>
-      <c r="P2" t="n">
         <v>378</v>
       </c>
     </row>
@@ -574,50 +518,31 @@
           <t>Ледоколы</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>16.44747081712062</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>4227</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.69533073929961</v>
+      </c>
       <c r="E3" t="n">
-        <v>4227</v>
+        <v>16.05058365758755</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2680</v>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>1462</v>
       </c>
       <c r="I3" t="n">
-        <v>257</v>
-      </c>
-      <c r="J3" t="n">
-        <v>22</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.69533073929961</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16.05058365758755</v>
-      </c>
-      <c r="M3" t="n">
-        <v>85</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2680</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1462</v>
-      </c>
-      <c r="P3" t="n">
         <v>1133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,85 +563,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>vessel_name</t>
+          <t>название судна</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>vessel_id</t>
+          <t>id судна</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Среднее время движения</t>
+          <t>Общее время движения</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Общее время движения</t>
+          <t>Суммарное время движения под проводкой</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Максимальное время движения корабля</t>
+          <t>Средняя скорость</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Минимальное время движения корабля</t>
+          <t>Средняя интегральная тяжесть льда</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Среднее время движения под проводкой</t>
+          <t>Ледокол</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Суммарное время движения под проводкой</t>
+          <t>Суммарное время движения в интервале 15-19</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Число пройденных промежуточных точек</t>
+          <t>Суммарное время движения в интервале 10-14</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Максимальная скорость</t>
+          <t>Суммарное время движения в интервале 20+</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Средняя скорость</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Средняя интегральная тяжесть льда</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>is_icebreaker</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Суммарное время движения в интервале 15-19</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Суммарное время движения в интервале 10-14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Суммарное время движения в интервале 20+</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Суммарное время ожидания</t>
         </is>
@@ -732,48 +627,30 @@
         <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>14.8</v>
+        <v>1036</v>
       </c>
       <c r="D2" t="n">
-        <v>1036</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>14.133</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+        <v>15.957</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="I2" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>14.13285714285714</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15.95714285714286</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340</v>
-      </c>
-      <c r="P2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="n">
         <v>242</v>
       </c>
     </row>
@@ -787,48 +664,30 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>19.66666666666667</v>
+        <v>18.5</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K3" t="n">
-        <v>14</v>
-      </c>
-      <c r="L3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>59</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,48 +701,30 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>23.25</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>13.7</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" t="n">
         <v>13</v>
       </c>
-      <c r="H4" t="n">
-        <v>13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q4" t="n">
         <v>17</v>
       </c>
     </row>
@@ -897,48 +738,30 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>26.25</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>47</v>
+        <v>11.7</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
-      </c>
-      <c r="G5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34</v>
+      </c>
+      <c r="I5" t="n">
         <v>13</v>
       </c>
-      <c r="H5" t="n">
-        <v>13</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
       <c r="J5" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="K5" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>34</v>
-      </c>
-      <c r="O5" t="n">
-        <v>13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>58</v>
-      </c>
-      <c r="Q5" t="n">
         <v>17</v>
       </c>
     </row>
@@ -952,48 +775,30 @@
         <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>11.175</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>17.4</v>
+        <v>16.333</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K6" t="n">
-        <v>11.175</v>
-      </c>
-      <c r="L6" t="n">
-        <v>16.33333333333333</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>80</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7</v>
-      </c>
-      <c r="P6" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,48 +812,30 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>14.625</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="K7" t="n">
-        <v>14.625</v>
-      </c>
-      <c r="L7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>33</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1062,48 +849,30 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>18.54545454545455</v>
+        <v>204</v>
       </c>
       <c r="D8" t="n">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>13.118</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19.11111111111111</v>
+        <v>16.364</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>13.11818181818182</v>
-      </c>
-      <c r="L8" t="n">
-        <v>16.36363636363636</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>65</v>
-      </c>
-      <c r="O8" t="n">
-        <v>107</v>
-      </c>
-      <c r="P8" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1117,48 +886,30 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>17.09090909090909</v>
+        <v>188</v>
       </c>
       <c r="D9" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>12.618</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18.1</v>
+        <v>15.636</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>12.61818181818182</v>
-      </c>
-      <c r="L9" t="n">
-        <v>15.63636363636364</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>66</v>
-      </c>
-      <c r="O9" t="n">
-        <v>115</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1172,48 +923,30 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>18.125</v>
+        <v>145</v>
       </c>
       <c r="D10" t="n">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="F10" t="n">
+        <v>16.375</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>111</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28</v>
+      </c>
+      <c r="J10" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="n">
-        <v>28</v>
-      </c>
-      <c r="H10" t="n">
-        <v>28</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>15</v>
-      </c>
       <c r="K10" t="n">
-        <v>9.925000000000001</v>
-      </c>
-      <c r="L10" t="n">
-        <v>16.375</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>111</v>
-      </c>
-      <c r="O10" t="n">
-        <v>28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1227,48 +960,30 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>16.18181818181818</v>
+        <v>178</v>
       </c>
       <c r="D11" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>13.327</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>17.2</v>
+        <v>15.455</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>13.32727272727273</v>
-      </c>
-      <c r="L11" t="n">
-        <v>15.45454545454546</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>60</v>
-      </c>
-      <c r="O11" t="n">
-        <v>112</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1282,48 +997,30 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D12" t="n">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>11.625</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
-      </c>
-      <c r="G12" t="n">
-        <v>31.5</v>
+        <v>20.25</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="K12" t="n">
-        <v>11.625</v>
-      </c>
-      <c r="L12" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>63</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1337,48 +1034,30 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.067</v>
+      </c>
+      <c r="F13" t="n">
         <v>20</v>
       </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" t="n">
-        <v>25</v>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>13.06666666666667</v>
-      </c>
-      <c r="L13" t="n">
-        <v>20</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1392,48 +1071,30 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>10.5</v>
+        <v>84</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>14.544</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11.28571428571429</v>
+        <v>16.375</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>14.54375</v>
-      </c>
-      <c r="L14" t="n">
-        <v>16.375</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>60</v>
-      </c>
-      <c r="O14" t="n">
-        <v>19</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
         <v>68</v>
       </c>
     </row>
@@ -1447,48 +1108,30 @@
         <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5</v>
+        <v>195</v>
       </c>
       <c r="D15" t="n">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="E15" t="n">
-        <v>45</v>
+        <v>13.6</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>22.66666666666667</v>
+        <v>17.2</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="J15" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="K15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>52</v>
-      </c>
-      <c r="O15" t="n">
-        <v>84</v>
-      </c>
-      <c r="P15" t="n">
-        <v>59</v>
-      </c>
-      <c r="Q15" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1502,48 +1145,30 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>22.5</v>
+        <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>14.4</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>19.5</v>
+        <v>19.75</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>39</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K16" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>51</v>
-      </c>
-      <c r="Q16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1557,48 +1182,30 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>19.06382978723404</v>
+        <v>896</v>
       </c>
       <c r="D17" t="n">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>13.496</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
+        <v>16.915</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="I17" t="n">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="J17" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="K17" t="n">
-        <v>13.49574468085106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>16.91489361702128</v>
-      </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>657</v>
-      </c>
-      <c r="O17" t="n">
-        <v>222</v>
-      </c>
-      <c r="P17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q17" t="n">
         <v>253</v>
       </c>
     </row>
@@ -1612,48 +1219,30 @@
         <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="D18" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>12.78</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>20</v>
+        <v>16.1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="L18" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>63</v>
-      </c>
-      <c r="O18" t="n">
-        <v>97</v>
-      </c>
-      <c r="P18" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1667,48 +1256,30 @@
         <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>15.5</v>
+        <v>124</v>
       </c>
       <c r="D19" t="n">
         <v>124</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>10.656</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>15.5</v>
+        <v>15.375</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>10.65625</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15.375</v>
-      </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>88</v>
-      </c>
-      <c r="O19" t="n">
-        <v>36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1722,48 +1293,30 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>24.25</v>
+        <v>97</v>
       </c>
       <c r="D20" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
+        <v>12.938</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>31</v>
       </c>
-      <c r="F20" t="n">
-        <v>17</v>
-      </c>
-      <c r="G20" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" t="n">
-        <v>60</v>
-      </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="K20" t="n">
-        <v>12.9375</v>
-      </c>
-      <c r="L20" t="n">
-        <v>19</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>31</v>
-      </c>
-      <c r="O20" t="n">
-        <v>29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1777,48 +1330,30 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D21" t="n">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>16.55</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K21" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="L21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>19</v>
-      </c>
-      <c r="O21" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q21" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1832,48 +1367,30 @@
         <v>22</v>
       </c>
       <c r="C22" t="n">
-        <v>18.125</v>
+        <v>145</v>
       </c>
       <c r="D22" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>103</v>
+      </c>
+      <c r="I22" t="n">
         <v>34</v>
       </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>19.57142857142857</v>
-      </c>
-      <c r="H22" t="n">
-        <v>137</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7</v>
-      </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="L22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>103</v>
-      </c>
-      <c r="O22" t="n">
-        <v>34</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1887,48 +1404,30 @@
         <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D23" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
-        <v>47</v>
+        <v>12.25</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
-      </c>
-      <c r="G23" t="n">
-        <v>27</v>
+        <v>18.75</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="K23" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>29</v>
-      </c>
-      <c r="P23" t="n">
-        <v>58</v>
-      </c>
-      <c r="Q23" t="n">
         <v>99</v>
       </c>
     </row>
@@ -1942,48 +1441,30 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>19.5</v>
+        <v>78</v>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>15.975</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
-      </c>
-      <c r="G24" t="n">
-        <v>23.5</v>
+        <v>19.25</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>47</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>15.975</v>
-      </c>
-      <c r="L24" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>47</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,48 +1478,30 @@
         <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D25" t="n">
         <v>68</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>12.8</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
-      </c>
-      <c r="G25" t="n">
         <v>17</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>68</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>17</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>68</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2052,48 +1515,30 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>24.75</v>
+        <v>99</v>
       </c>
       <c r="D26" t="n">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
-      </c>
-      <c r="G26" t="n">
-        <v>24</v>
+        <v>18.25</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K26" t="n">
-        <v>14</v>
-      </c>
-      <c r="L26" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>22</v>
-      </c>
-      <c r="O26" t="n">
-        <v>26</v>
-      </c>
-      <c r="P26" t="n">
-        <v>51</v>
-      </c>
-      <c r="Q26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2107,48 +1552,30 @@
         <v>35</v>
       </c>
       <c r="C27" t="n">
-        <v>26.25</v>
+        <v>105</v>
       </c>
       <c r="D27" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>42</v>
+        <v>12.625</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
-      </c>
-      <c r="G27" t="n">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>54</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K27" t="n">
-        <v>12.625</v>
-      </c>
-      <c r="L27" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>54</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>51</v>
-      </c>
-      <c r="Q27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,48 +1589,30 @@
         <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>16.5</v>
+        <v>99</v>
       </c>
       <c r="D28" t="n">
+        <v>37</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12.133</v>
+      </c>
+      <c r="F28" t="n">
+        <v>16.333</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>99</v>
       </c>
-      <c r="E28" t="n">
-        <v>31</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="H28" t="n">
-        <v>37</v>
-      </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.13333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>16.33333333333333</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>99</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2217,48 +1626,30 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>21.2</v>
+        <v>212</v>
       </c>
       <c r="D29" t="n">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>12.77</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>21</v>
+        <v>17.3</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="J29" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="K29" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="L29" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>63</v>
-      </c>
-      <c r="O29" t="n">
-        <v>84</v>
-      </c>
-      <c r="P29" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q29" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2272,48 +1663,30 @@
         <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>13.75</v>
+        <v>55</v>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>16.2</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
-      </c>
-      <c r="G30" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>29</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K30" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="M30" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>29</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q30" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2327,48 +1700,30 @@
         <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>14.4</v>
       </c>
       <c r="F31" t="n">
-        <v>19</v>
-      </c>
-      <c r="G31" t="n">
-        <v>25</v>
+        <v>20.5</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>25</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K31" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>25</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2382,48 +1737,30 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>21.5</v>
+        <v>86</v>
       </c>
       <c r="D32" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>13.5</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
-      </c>
-      <c r="G32" t="n">
-        <v>20</v>
+        <v>19.5</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>40</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="K32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="M32" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>40</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2437,48 +1774,30 @@
         <v>34</v>
       </c>
       <c r="C33" t="n">
-        <v>20.75</v>
+        <v>83</v>
       </c>
       <c r="D33" t="n">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>42</v>
+        <v>14.4</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
-      </c>
-      <c r="G33" t="n">
-        <v>16</v>
+        <v>18.75</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>32</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K33" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>32</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>51</v>
-      </c>
-      <c r="Q33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2492,48 +1811,30 @@
         <v>26</v>
       </c>
       <c r="C34" t="n">
-        <v>18.4</v>
+        <v>92</v>
       </c>
       <c r="D34" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>12.32</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
-      </c>
-      <c r="G34" t="n">
-        <v>19</v>
+        <v>18.6</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>57</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="K34" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="L34" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>57</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2547,48 +1848,30 @@
         <v>42</v>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>23</v>
+        <v>15.2</v>
       </c>
       <c r="F35" t="n">
-        <v>16</v>
-      </c>
-      <c r="G35" t="n">
-        <v>22</v>
+        <v>19.75</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>22</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K35" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>22</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>58</v>
-      </c>
-      <c r="Q35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2602,48 +1885,30 @@
         <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D36" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E36" t="n">
-        <v>27</v>
+        <v>17.48</v>
       </c>
       <c r="F36" t="n">
-        <v>8</v>
-      </c>
-      <c r="G36" t="n">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>28</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K36" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="L36" t="n">
-        <v>20</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>28</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2657,48 +1922,30 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>25.5</v>
+        <v>102</v>
       </c>
       <c r="D37" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="E37" t="n">
-        <v>42</v>
+        <v>14.4</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
-      </c>
-      <c r="G37" t="n">
-        <v>25.5</v>
+        <v>19</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>51</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K37" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>19</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>51</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>51</v>
-      </c>
-      <c r="Q37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2712,48 +1959,30 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>16.5</v>
+        <v>99</v>
       </c>
       <c r="D38" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="E38" t="n">
-        <v>22</v>
+        <v>14.933</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
-      </c>
-      <c r="G38" t="n">
-        <v>21.5</v>
+        <v>19.833</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>43</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>14.93333333333333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>19.83333333333333</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>43</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2767,48 +1996,30 @@
         <v>45</v>
       </c>
       <c r="C39" t="n">
-        <v>17.21311475409836</v>
+        <v>1050</v>
       </c>
       <c r="D39" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>39</v>
+        <v>12.698</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
+        <v>16.016</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="I39" t="n">
-        <v>61</v>
+        <v>319</v>
       </c>
       <c r="J39" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="K39" t="n">
-        <v>12.69836065573771</v>
-      </c>
-      <c r="L39" t="n">
-        <v>16.01639344262295</v>
-      </c>
-      <c r="M39" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>716</v>
-      </c>
-      <c r="O39" t="n">
-        <v>319</v>
-      </c>
-      <c r="P39" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q39" t="n">
         <v>408</v>
       </c>
     </row>
@@ -2822,48 +2033,30 @@
         <v>28</v>
       </c>
       <c r="C40" t="n">
-        <v>14.85714285714286</v>
+        <v>104</v>
       </c>
       <c r="D40" t="n">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="E40" t="n">
-        <v>31</v>
+        <v>14.943</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>13.6</v>
+        <v>17.143</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K40" t="n">
-        <v>14.94285714285714</v>
-      </c>
-      <c r="L40" t="n">
-        <v>17.14285714285714</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>63</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2877,48 +2070,30 @@
         <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="D41" t="n">
         <v>165</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>13.473</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
+        <v>14.909</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="J41" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.47272727272727</v>
-      </c>
-      <c r="L41" t="n">
-        <v>14.90909090909091</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>58</v>
-      </c>
-      <c r="O41" t="n">
-        <v>107</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2932,48 +2107,30 @@
         <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D42" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E42" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" t="n">
-        <v>13</v>
+        <v>18.8</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>39</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K42" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="L42" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>39</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2987,48 +2144,30 @@
         <v>17</v>
       </c>
       <c r="C43" t="n">
-        <v>15.25</v>
+        <v>183</v>
       </c>
       <c r="D43" t="n">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="E43" t="n">
-        <v>35</v>
+        <v>13.1</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" t="n">
-        <v>15.2</v>
+        <v>15.75</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="J43" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>89</v>
-      </c>
-      <c r="O43" t="n">
-        <v>88</v>
-      </c>
-      <c r="P43" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q43" t="n">
         <v>34</v>
       </c>
     </row>
@@ -3042,48 +2181,30 @@
         <v>19</v>
       </c>
       <c r="C44" t="n">
-        <v>13.25</v>
+        <v>106</v>
       </c>
       <c r="D44" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E44" t="n">
-        <v>27</v>
+        <v>12.275</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="n">
-        <v>10.4</v>
+        <v>16.75</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J44" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>12.275</v>
-      </c>
-      <c r="L44" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>93</v>
-      </c>
-      <c r="O44" t="n">
-        <v>13</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3097,48 +2218,30 @@
         <v>18</v>
       </c>
       <c r="C45" t="n">
-        <v>25.66666666666667</v>
+        <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" t="n">
+        <v>20.333</v>
+      </c>
+      <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="K45" t="n">
-        <v>13</v>
-      </c>
-      <c r="L45" t="n">
-        <v>20.33333333333333</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>23</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>54</v>
-      </c>
-      <c r="Q45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3152,48 +2255,30 @@
         <v>38</v>
       </c>
       <c r="C46" t="n">
-        <v>20.25</v>
+        <v>81</v>
       </c>
       <c r="D46" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E46" t="n">
-        <v>29</v>
+        <v>14.4</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
-      </c>
-      <c r="G46" t="n">
-        <v>25.5</v>
+        <v>19</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>51</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L46" t="n">
-        <v>19</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>51</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q46" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3207,52 +2292,34 @@
         <v>44</v>
       </c>
       <c r="C47" t="n">
-        <v>15.75949367088608</v>
+        <v>1245</v>
       </c>
       <c r="D47" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>38</v>
+        <v>14.196</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
+        <v>15.646</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="I47" t="n">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="J47" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K47" t="n">
-        <v>14.19620253164557</v>
-      </c>
-      <c r="L47" t="n">
-        <v>15.64556962025316</v>
-      </c>
-      <c r="M47" t="b">
-        <v>1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>632</v>
-      </c>
-      <c r="O47" t="n">
-        <v>581</v>
-      </c>
-      <c r="P47" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q47" t="n">
         <v>230</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/scenarios/base/output/statistics.xlsx
+++ b/data/scenarios/base/output/statistics.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Общая статистика" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,40 +442,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Среднее время движения</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Среднее время движения под проводкой</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Суммарное время движения под проводкой</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Общее время движения</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальное время движения</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Минимальное время движения</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Среднее число пройденных промежуточных точек</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Суммарное число пройденных промежуточных точек</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальная скорость</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Средняя скорость</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Средняя интегральная тяжесть льда</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Время движения в интегральной тяжести 20+</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Время движения в интегральной тяжести 15-19</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Время движения в интегральной тяжести 10-14</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Общее время простоя</t>
         </is>
@@ -488,27 +523,48 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>18.512</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17.9079754601227</v>
+      </c>
+      <c r="D2" t="n">
         <v>2919</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>4628</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>47</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>208</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19</v>
+      </c>
+      <c r="K2" t="n">
         <v>13.296</v>
       </c>
-      <c r="E2" t="n">
+      <c r="L2" t="n">
         <v>17.428</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>1375</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>2197</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>1056</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>378</v>
       </c>
     </row>
@@ -518,31 +574,50 @@
           <t>Ледоколы</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
+        <v>16.44747081712062</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>4227</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>257</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22</v>
+      </c>
+      <c r="K3" t="n">
         <v>13.69533073929961</v>
       </c>
-      <c r="E3" t="n">
+      <c r="L3" t="n">
         <v>16.05058365758755</v>
       </c>
-      <c r="F3" t="n">
+      <c r="M3" t="n">
         <v>85</v>
       </c>
-      <c r="G3" t="n">
+      <c r="N3" t="n">
         <v>2680</v>
       </c>
-      <c r="H3" t="n">
+      <c r="O3" t="n">
         <v>1462</v>
       </c>
-      <c r="I3" t="n">
+      <c r="P3" t="n">
         <v>1133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -552,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,55 +638,85 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>название судна</t>
+          <t>vessel_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id судна</t>
+          <t>vessel_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Среднее время движения</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Общее время движения</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальное время движения корабля</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Минимальное время движения корабля</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Среднее время движения под проводкой</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Суммарное время движения под проводкой</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Число пройденных промежуточных точек</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Максимальная скорость</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Средняя скорость</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Средняя интегральная тяжесть льда</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ледокол</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>is_icebreaker</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Суммарное время движения в интервале 15-19</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Суммарное время движения в интервале 10-14</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Суммарное время движения в интервале 20+</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Суммарное время ожидания</t>
         </is>
@@ -627,30 +732,48 @@
         <v>43</v>
       </c>
       <c r="C2" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D2" t="n">
         <v>1036</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>14.133</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>15.957</v>
-      </c>
-      <c r="G2" t="b">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>70</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.13285714285714</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15.95714285714286</v>
+      </c>
+      <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>675</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>340</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>21</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
         <v>242</v>
       </c>
     </row>
@@ -664,30 +787,48 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
         <v>80</v>
       </c>
-      <c r="D3" t="n">
-        <v>59</v>
-      </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.66666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>59</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>21</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,30 +842,48 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="D4" t="n">
         <v>93</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
         <v>13.7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>18.5</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>25</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>13</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>55</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
         <v>17</v>
       </c>
     </row>
@@ -738,30 +897,48 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="D5" t="n">
         <v>105</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
         <v>13</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14</v>
+      </c>
+      <c r="K5" t="n">
         <v>11.7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="L5" t="n">
         <v>18.5</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>34</v>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
         <v>13</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
         <v>58</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
         <v>17</v>
       </c>
     </row>
@@ -775,30 +952,48 @@
         <v>39</v>
       </c>
       <c r="C6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D6" t="n">
         <v>111</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>39</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>87</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" t="n">
         <v>11.175</v>
       </c>
-      <c r="F6" t="n">
-        <v>16.333</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>80</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
         <v>24</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -812,30 +1007,48 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D7" t="n">
         <v>70</v>
       </c>
-      <c r="D7" t="n">
-        <v>33</v>
-      </c>
       <c r="E7" t="n">
-        <v>14.625</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.5</v>
       </c>
       <c r="H7" t="n">
         <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.625</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>33</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>37</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -849,30 +1062,48 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
+        <v>18.54545454545455</v>
+      </c>
+      <c r="D8" t="n">
         <v>204</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.11111111111111</v>
+      </c>
+      <c r="H8" t="n">
         <v>172</v>
       </c>
-      <c r="E8" t="n">
-        <v>13.118</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.364</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.11818181818182</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16.36363636363636</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>65</v>
       </c>
-      <c r="I8" t="n">
+      <c r="O8" t="n">
         <v>107</v>
       </c>
-      <c r="J8" t="n">
+      <c r="P8" t="n">
         <v>32</v>
       </c>
-      <c r="K8" t="n">
+      <c r="Q8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -886,30 +1117,48 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
+        <v>17.09090909090909</v>
+      </c>
+      <c r="D9" t="n">
         <v>188</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="H9" t="n">
         <v>181</v>
       </c>
-      <c r="E9" t="n">
-        <v>12.618</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.636</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.61818181818182</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15.63636363636364</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>66</v>
       </c>
-      <c r="I9" t="n">
+      <c r="O9" t="n">
         <v>115</v>
       </c>
-      <c r="J9" t="n">
+      <c r="P9" t="n">
         <v>7</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Q9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -923,30 +1172,48 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
+        <v>18.125</v>
+      </c>
+      <c r="D10" t="n">
         <v>145</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
         <v>28</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
+        <v>28</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15</v>
+      </c>
+      <c r="K10" t="n">
         <v>9.925000000000001</v>
       </c>
-      <c r="F10" t="n">
+      <c r="L10" t="n">
         <v>16.375</v>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>111</v>
       </c>
-      <c r="I10" t="n">
+      <c r="O10" t="n">
         <v>28</v>
       </c>
-      <c r="J10" t="n">
+      <c r="P10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="Q10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -960,30 +1227,48 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
+        <v>16.18181818181818</v>
+      </c>
+      <c r="D11" t="n">
         <v>178</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="H11" t="n">
         <v>172</v>
       </c>
-      <c r="E11" t="n">
-        <v>13.327</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15.455</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13.32727272727273</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15.45454545454546</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>60</v>
       </c>
-      <c r="I11" t="n">
+      <c r="O11" t="n">
         <v>112</v>
       </c>
-      <c r="J11" t="n">
+      <c r="P11" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="Q11" t="n">
         <v>22</v>
       </c>
     </row>
@@ -997,30 +1282,48 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D12" t="n">
         <v>112</v>
       </c>
-      <c r="D12" t="n">
-        <v>63</v>
-      </c>
       <c r="E12" t="n">
-        <v>11.625</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G12" t="n">
+        <v>31.5</v>
       </c>
       <c r="H12" t="n">
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
+        <v>14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>63</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>49</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Q12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1034,30 +1337,48 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
         <v>60</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
-        <v>13.067</v>
-      </c>
       <c r="F13" t="n">
-        <v>20</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25</v>
       </c>
       <c r="H13" t="n">
         <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13.06666666666667</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="Q13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1071,30 +1392,48 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D14" t="n">
         <v>84</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11.28571428571429</v>
+      </c>
+      <c r="H14" t="n">
         <v>79</v>
       </c>
-      <c r="E14" t="n">
-        <v>14.544</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14.54375</v>
+      </c>
+      <c r="L14" t="n">
         <v>16.375</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>60</v>
       </c>
-      <c r="I14" t="n">
+      <c r="O14" t="n">
         <v>19</v>
       </c>
-      <c r="J14" t="n">
+      <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="Q14" t="n">
         <v>68</v>
       </c>
     </row>
@@ -1108,30 +1447,48 @@
         <v>23</v>
       </c>
       <c r="C15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D15" t="n">
         <v>195</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>45</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>136</v>
       </c>
-      <c r="E15" t="n">
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K15" t="n">
         <v>13.6</v>
       </c>
-      <c r="F15" t="n">
+      <c r="L15" t="n">
         <v>17.2</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>52</v>
       </c>
-      <c r="I15" t="n">
+      <c r="O15" t="n">
         <v>84</v>
       </c>
-      <c r="J15" t="n">
+      <c r="P15" t="n">
         <v>59</v>
       </c>
-      <c r="K15" t="n">
+      <c r="Q15" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1145,30 +1502,48 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D16" t="n">
         <v>90</v>
       </c>
-      <c r="D16" t="n">
-        <v>39</v>
-      </c>
       <c r="E16" t="n">
-        <v>14.4</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19.5</v>
       </c>
       <c r="H16" t="n">
         <v>39</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
+        <v>16</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>51</v>
       </c>
-      <c r="K16" t="n">
+      <c r="Q16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1182,30 +1557,48 @@
         <v>46</v>
       </c>
       <c r="C17" t="n">
+        <v>19.06382978723404</v>
+      </c>
+      <c r="D17" t="n">
         <v>896</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
-        <v>13.496</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
-        <v>16.915</v>
-      </c>
-      <c r="G17" t="b">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47</v>
+      </c>
+      <c r="J17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13.49574468085106</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16.91489361702128</v>
+      </c>
+      <c r="M17" t="b">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
+      <c r="N17" t="n">
         <v>657</v>
       </c>
-      <c r="I17" t="n">
+      <c r="O17" t="n">
         <v>222</v>
       </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
         <v>17</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Q17" t="n">
         <v>253</v>
       </c>
     </row>
@@ -1219,30 +1612,48 @@
         <v>33</v>
       </c>
       <c r="C18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n">
         <v>190</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
+        <v>34</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H18" t="n">
         <v>160</v>
       </c>
-      <c r="E18" t="n">
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
         <v>12.78</v>
       </c>
-      <c r="F18" t="n">
+      <c r="L18" t="n">
         <v>16.1</v>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>63</v>
       </c>
-      <c r="I18" t="n">
+      <c r="O18" t="n">
         <v>97</v>
       </c>
-      <c r="J18" t="n">
+      <c r="P18" t="n">
         <v>30</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Q18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1256,30 +1667,48 @@
         <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>124</v>
+        <v>15.5</v>
       </c>
       <c r="D19" t="n">
         <v>124</v>
       </c>
       <c r="E19" t="n">
-        <v>10.656</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>124</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10.65625</v>
+      </c>
+      <c r="L19" t="n">
         <v>15.375</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>88</v>
       </c>
-      <c r="I19" t="n">
+      <c r="O19" t="n">
         <v>36</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1293,30 +1722,48 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D20" t="n">
         <v>97</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" t="n">
         <v>60</v>
       </c>
-      <c r="E20" t="n">
-        <v>12.938</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.9375</v>
+      </c>
+      <c r="L20" t="n">
         <v>19</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>31</v>
       </c>
-      <c r="I20" t="n">
+      <c r="O20" t="n">
         <v>29</v>
       </c>
-      <c r="J20" t="n">
+      <c r="P20" t="n">
         <v>37</v>
       </c>
-      <c r="K20" t="n">
+      <c r="Q20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,30 +1777,48 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" t="n">
         <v>72</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>35</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H21" t="n">
         <v>29</v>
       </c>
-      <c r="E21" t="n">
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
         <v>16.55</v>
       </c>
-      <c r="F21" t="n">
+      <c r="L21" t="n">
         <v>18.5</v>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>19</v>
       </c>
-      <c r="I21" t="n">
+      <c r="O21" t="n">
         <v>10</v>
       </c>
-      <c r="J21" t="n">
+      <c r="P21" t="n">
         <v>43</v>
       </c>
-      <c r="K21" t="n">
+      <c r="Q21" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1367,30 +1832,48 @@
         <v>22</v>
       </c>
       <c r="C22" t="n">
+        <v>18.125</v>
+      </c>
+      <c r="D22" t="n">
         <v>145</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
+        <v>34</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="H22" t="n">
         <v>137</v>
       </c>
-      <c r="E22" t="n">
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12</v>
+      </c>
+      <c r="K22" t="n">
         <v>9.75</v>
       </c>
-      <c r="F22" t="n">
+      <c r="L22" t="n">
         <v>16.5</v>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>103</v>
       </c>
-      <c r="I22" t="n">
+      <c r="O22" t="n">
         <v>34</v>
       </c>
-      <c r="J22" t="n">
+      <c r="P22" t="n">
         <v>8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="Q22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1404,30 +1887,48 @@
         <v>20</v>
       </c>
       <c r="C23" t="n">
+        <v>28</v>
+      </c>
+      <c r="D23" t="n">
         <v>112</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
+        <v>47</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11</v>
+      </c>
+      <c r="G23" t="n">
+        <v>27</v>
+      </c>
+      <c r="H23" t="n">
         <v>54</v>
       </c>
-      <c r="E23" t="n">
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14</v>
+      </c>
+      <c r="K23" t="n">
         <v>12.25</v>
       </c>
-      <c r="F23" t="n">
+      <c r="L23" t="n">
         <v>18.75</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>25</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="n">
         <v>29</v>
       </c>
-      <c r="J23" t="n">
+      <c r="P23" t="n">
         <v>58</v>
       </c>
-      <c r="K23" t="n">
+      <c r="Q23" t="n">
         <v>99</v>
       </c>
     </row>
@@ -1441,30 +1942,48 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D24" t="n">
         <v>78</v>
       </c>
-      <c r="D24" t="n">
-        <v>47</v>
-      </c>
       <c r="E24" t="n">
-        <v>15.975</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G24" t="n">
+        <v>23.5</v>
       </c>
       <c r="H24" t="n">
         <v>47</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
+        <v>18</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15.975</v>
+      </c>
+      <c r="L24" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>47</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>31</v>
       </c>
-      <c r="K24" t="n">
+      <c r="Q24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1478,30 +1997,48 @@
         <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
         <v>68</v>
       </c>
       <c r="E25" t="n">
-        <v>12.8</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" t="n">
         <v>17</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>68</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K25" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>17</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>68</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1515,30 +2052,48 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D26" t="n">
         <v>99</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
+        <v>42</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
         <v>48</v>
       </c>
-      <c r="E26" t="n">
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>16</v>
+      </c>
+      <c r="K26" t="n">
         <v>14</v>
       </c>
-      <c r="F26" t="n">
+      <c r="L26" t="n">
         <v>18.25</v>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>22</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="n">
         <v>26</v>
       </c>
-      <c r="J26" t="n">
+      <c r="P26" t="n">
         <v>51</v>
       </c>
-      <c r="K26" t="n">
+      <c r="Q26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,30 +2107,48 @@
         <v>35</v>
       </c>
       <c r="C27" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="D27" t="n">
         <v>105</v>
       </c>
-      <c r="D27" t="n">
-        <v>54</v>
-      </c>
       <c r="E27" t="n">
-        <v>12.625</v>
+        <v>42</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27</v>
       </c>
       <c r="H27" t="n">
         <v>54</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
+        <v>16</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12.625</v>
+      </c>
+      <c r="L27" t="n">
+        <v>20</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>54</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>51</v>
       </c>
-      <c r="K27" t="n">
+      <c r="Q27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1589,30 +2162,48 @@
         <v>15</v>
       </c>
       <c r="C28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D28" t="n">
         <v>99</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H28" t="n">
         <v>37</v>
       </c>
-      <c r="E28" t="n">
-        <v>12.133</v>
-      </c>
-      <c r="F28" t="n">
-        <v>16.333</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>14</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="L28" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>99</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1626,30 +2217,48 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D29" t="n">
         <v>212</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
+        <v>40</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>21</v>
+      </c>
+      <c r="H29" t="n">
         <v>147</v>
       </c>
-      <c r="E29" t="n">
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>16</v>
+      </c>
+      <c r="K29" t="n">
         <v>12.77</v>
       </c>
-      <c r="F29" t="n">
+      <c r="L29" t="n">
         <v>17.3</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>63</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="n">
         <v>84</v>
       </c>
-      <c r="J29" t="n">
+      <c r="P29" t="n">
         <v>65</v>
       </c>
-      <c r="K29" t="n">
+      <c r="Q29" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1663,30 +2272,48 @@
         <v>30</v>
       </c>
       <c r="C30" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D30" t="n">
         <v>55</v>
       </c>
-      <c r="D30" t="n">
-        <v>29</v>
-      </c>
       <c r="E30" t="n">
-        <v>16.2</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14.5</v>
       </c>
       <c r="H30" t="n">
         <v>29</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
+        <v>18</v>
+      </c>
+      <c r="K30" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>29</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>26</v>
       </c>
-      <c r="K30" t="n">
+      <c r="Q30" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1700,30 +2327,48 @@
         <v>32</v>
       </c>
       <c r="C31" t="n">
+        <v>22</v>
+      </c>
+      <c r="D31" t="n">
         <v>44</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>25</v>
       </c>
-      <c r="E31" t="n">
-        <v>14.4</v>
-      </c>
       <c r="F31" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25</v>
       </c>
       <c r="H31" t="n">
         <v>25</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
+        <v>16</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>19</v>
       </c>
-      <c r="K31" t="n">
+      <c r="Q31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,30 +2382,48 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D32" t="n">
         <v>86</v>
       </c>
-      <c r="D32" t="n">
-        <v>40</v>
-      </c>
       <c r="E32" t="n">
-        <v>13.5</v>
+        <v>31</v>
       </c>
       <c r="F32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20</v>
       </c>
       <c r="H32" t="n">
         <v>40</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
+        <v>15</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>40</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>46</v>
       </c>
-      <c r="K32" t="n">
+      <c r="Q32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1774,30 +2437,48 @@
         <v>34</v>
       </c>
       <c r="C33" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="D33" t="n">
         <v>83</v>
       </c>
-      <c r="D33" t="n">
-        <v>32</v>
-      </c>
       <c r="E33" t="n">
-        <v>14.4</v>
+        <v>42</v>
       </c>
       <c r="F33" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16</v>
       </c>
       <c r="H33" t="n">
         <v>32</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
+        <v>16</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>32</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>51</v>
       </c>
-      <c r="K33" t="n">
+      <c r="Q33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1811,30 +2492,48 @@
         <v>26</v>
       </c>
       <c r="C34" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D34" t="n">
         <v>92</v>
       </c>
-      <c r="D34" t="n">
-        <v>57</v>
-      </c>
       <c r="E34" t="n">
-        <v>12.32</v>
+        <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>19</v>
       </c>
       <c r="H34" t="n">
         <v>57</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
+        <v>14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>57</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>35</v>
       </c>
-      <c r="K34" t="n">
+      <c r="Q34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1848,30 +2547,48 @@
         <v>42</v>
       </c>
       <c r="C35" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" t="n">
         <v>80</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
+        <v>23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>16</v>
+      </c>
+      <c r="G35" t="n">
         <v>22</v>
-      </c>
-      <c r="E35" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>22</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
+        <v>16</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>22</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>58</v>
       </c>
-      <c r="K35" t="n">
+      <c r="Q35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1885,30 +2602,48 @@
         <v>12</v>
       </c>
       <c r="C36" t="n">
+        <v>18</v>
+      </c>
+      <c r="D36" t="n">
         <v>90</v>
       </c>
-      <c r="D36" t="n">
-        <v>28</v>
-      </c>
       <c r="E36" t="n">
-        <v>17.48</v>
+        <v>27</v>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>14</v>
       </c>
       <c r="H36" t="n">
         <v>28</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
+        <v>19</v>
+      </c>
+      <c r="K36" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="L36" t="n">
+        <v>20</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>28</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>62</v>
       </c>
-      <c r="K36" t="n">
+      <c r="Q36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1922,30 +2657,48 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D37" t="n">
         <v>102</v>
       </c>
-      <c r="D37" t="n">
-        <v>51</v>
-      </c>
       <c r="E37" t="n">
-        <v>14.4</v>
+        <v>42</v>
       </c>
       <c r="F37" t="n">
-        <v>19</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>25.5</v>
       </c>
       <c r="H37" t="n">
         <v>51</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
+        <v>16</v>
+      </c>
+      <c r="K37" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>19</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>51</v>
       </c>
-      <c r="K37" t="n">
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1959,30 +2712,48 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D38" t="n">
         <v>99</v>
       </c>
-      <c r="D38" t="n">
-        <v>43</v>
-      </c>
       <c r="E38" t="n">
-        <v>14.933</v>
+        <v>22</v>
       </c>
       <c r="F38" t="n">
-        <v>19.833</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>21.5</v>
       </c>
       <c r="H38" t="n">
         <v>43</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
+        <v>16</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="L38" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>43</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>56</v>
       </c>
-      <c r="K38" t="n">
+      <c r="Q38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1996,30 +2767,48 @@
         <v>45</v>
       </c>
       <c r="C39" t="n">
+        <v>17.21311475409836</v>
+      </c>
+      <c r="D39" t="n">
         <v>1050</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
       <c r="E39" t="n">
-        <v>12.698</v>
+        <v>39</v>
       </c>
       <c r="F39" t="n">
-        <v>16.016</v>
-      </c>
-      <c r="G39" t="b">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>61</v>
+      </c>
+      <c r="J39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12.69836065573771</v>
+      </c>
+      <c r="L39" t="n">
+        <v>16.01639344262295</v>
+      </c>
+      <c r="M39" t="b">
         <v>1</v>
       </c>
-      <c r="H39" t="n">
+      <c r="N39" t="n">
         <v>716</v>
       </c>
-      <c r="I39" t="n">
+      <c r="O39" t="n">
         <v>319</v>
       </c>
-      <c r="J39" t="n">
+      <c r="P39" t="n">
         <v>15</v>
       </c>
-      <c r="K39" t="n">
+      <c r="Q39" t="n">
         <v>408</v>
       </c>
     </row>
@@ -2033,30 +2822,48 @@
         <v>28</v>
       </c>
       <c r="C40" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="D40" t="n">
         <v>104</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H40" t="n">
         <v>68</v>
       </c>
-      <c r="E40" t="n">
-        <v>14.943</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17.143</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14.94285714285714</v>
+      </c>
+      <c r="L40" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>63</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="n">
         <v>5</v>
       </c>
-      <c r="J40" t="n">
+      <c r="P40" t="n">
         <v>36</v>
       </c>
-      <c r="K40" t="n">
+      <c r="Q40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2070,30 +2877,48 @@
         <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
         <v>165</v>
       </c>
       <c r="E41" t="n">
-        <v>13.473</v>
+        <v>30</v>
       </c>
       <c r="F41" t="n">
-        <v>14.909</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>15</v>
       </c>
       <c r="H41" t="n">
+        <v>165</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>18</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13.47272727272727</v>
+      </c>
+      <c r="L41" t="n">
+        <v>14.90909090909091</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>58</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="n">
         <v>107</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2107,30 +2932,48 @@
         <v>13</v>
       </c>
       <c r="C42" t="n">
+        <v>13</v>
+      </c>
+      <c r="D42" t="n">
         <v>65</v>
       </c>
-      <c r="D42" t="n">
-        <v>39</v>
-      </c>
       <c r="E42" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="F42" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
       </c>
       <c r="H42" t="n">
         <v>39</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
+        <v>19</v>
+      </c>
+      <c r="K42" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>26</v>
       </c>
-      <c r="K42" t="n">
+      <c r="Q42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2144,30 +2987,48 @@
         <v>17</v>
       </c>
       <c r="C43" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="D43" t="n">
         <v>183</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
+        <v>35</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>152</v>
       </c>
-      <c r="E43" t="n">
+      <c r="I43" t="n">
+        <v>11</v>
+      </c>
+      <c r="J43" t="n">
+        <v>15</v>
+      </c>
+      <c r="K43" t="n">
         <v>13.1</v>
       </c>
-      <c r="F43" t="n">
+      <c r="L43" t="n">
         <v>15.75</v>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>89</v>
       </c>
-      <c r="I43" t="n">
+      <c r="O43" t="n">
         <v>88</v>
       </c>
-      <c r="J43" t="n">
+      <c r="P43" t="n">
         <v>6</v>
       </c>
-      <c r="K43" t="n">
+      <c r="Q43" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2181,30 +3042,48 @@
         <v>19</v>
       </c>
       <c r="C44" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="D44" t="n">
         <v>106</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
+        <v>27</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H44" t="n">
         <v>52</v>
       </c>
-      <c r="E44" t="n">
+      <c r="I44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>15</v>
+      </c>
+      <c r="K44" t="n">
         <v>12.275</v>
       </c>
-      <c r="F44" t="n">
+      <c r="L44" t="n">
         <v>16.75</v>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>93</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="n">
         <v>13</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2218,30 +3097,48 @@
         <v>18</v>
       </c>
       <c r="C45" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="D45" t="n">
         <v>77</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
       <c r="E45" t="n">
+        <v>44</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15</v>
+      </c>
+      <c r="K45" t="n">
         <v>13</v>
       </c>
-      <c r="F45" t="n">
-        <v>20.333</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="L45" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>23</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>54</v>
       </c>
-      <c r="K45" t="n">
+      <c r="Q45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2255,30 +3152,48 @@
         <v>38</v>
       </c>
       <c r="C46" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="D46" t="n">
         <v>81</v>
       </c>
-      <c r="D46" t="n">
-        <v>51</v>
-      </c>
       <c r="E46" t="n">
-        <v>14.4</v>
+        <v>29</v>
       </c>
       <c r="F46" t="n">
-        <v>19</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25.5</v>
       </c>
       <c r="H46" t="n">
         <v>51</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
+        <v>16</v>
+      </c>
+      <c r="K46" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>19</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>51</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>30</v>
       </c>
-      <c r="K46" t="n">
+      <c r="Q46" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2292,34 +3207,52 @@
         <v>44</v>
       </c>
       <c r="C47" t="n">
+        <v>15.75949367088608</v>
+      </c>
+      <c r="D47" t="n">
         <v>1245</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
       <c r="E47" t="n">
-        <v>14.196</v>
+        <v>38</v>
       </c>
       <c r="F47" t="n">
-        <v>15.646</v>
-      </c>
-      <c r="G47" t="b">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>79</v>
+      </c>
+      <c r="J47" t="n">
+        <v>21</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14.19620253164557</v>
+      </c>
+      <c r="L47" t="n">
+        <v>15.64556962025316</v>
+      </c>
+      <c r="M47" t="b">
         <v>1</v>
       </c>
-      <c r="H47" t="n">
+      <c r="N47" t="n">
         <v>632</v>
       </c>
-      <c r="I47" t="n">
+      <c r="O47" t="n">
         <v>581</v>
       </c>
-      <c r="J47" t="n">
+      <c r="P47" t="n">
         <v>32</v>
       </c>
-      <c r="K47" t="n">
+      <c r="Q47" t="n">
         <v>230</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>